--- a/bank.xlsx
+++ b/bank.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z3"/>
+  <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,31 +455,6 @@
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Meet</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>BOB</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>3561654653416541341</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>BANKIFSC12</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>36811.67</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:Z1"/>
